--- a/output/data/sum_of_variances.xlsx
+++ b/output/data/sum_of_variances.xlsx
@@ -39,10 +39,10 @@
     <t xml:space="preserve">97.5%</t>
   </si>
   <si>
-    <t xml:space="preserve">original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_descriptions</t>
+    <t xml:space="preserve">Previous data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current data</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>

--- a/output/data/sum_of_variances.xlsx
+++ b/output/data/sum_of_variances.xlsx
@@ -435,10 +435,10 @@
         <v>50.19</v>
       </c>
       <c r="D2" t="n">
-        <v>49.68</v>
+        <v>49.69</v>
       </c>
       <c r="E2" t="n">
-        <v>49.24</v>
+        <v>49.23</v>
       </c>
       <c r="F2" t="n">
         <v>49.52</v>
@@ -447,7 +447,7 @@
         <v>49.85</v>
       </c>
       <c r="H2" t="n">
-        <v>50.17</v>
+        <v>50.16</v>
       </c>
     </row>
     <row r="3">
@@ -461,19 +461,19 @@
         <v>49.55</v>
       </c>
       <c r="D3" t="n">
-        <v>49.18</v>
+        <v>49.19</v>
       </c>
       <c r="E3" t="n">
-        <v>48.73</v>
+        <v>48.72</v>
       </c>
       <c r="F3" t="n">
-        <v>49.02</v>
+        <v>49.03</v>
       </c>
       <c r="G3" t="n">
         <v>49.34</v>
       </c>
       <c r="H3" t="n">
-        <v>49.65</v>
+        <v>49.63</v>
       </c>
     </row>
   </sheetData>
@@ -703,25 +703,25 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>49.71</v>
+        <v>48.98</v>
       </c>
       <c r="D9" t="n">
-        <v>40.29</v>
+        <v>42.59</v>
       </c>
       <c r="E9" t="n">
-        <v>27.89</v>
+        <v>33.49</v>
       </c>
       <c r="F9" t="n">
-        <v>35.53</v>
+        <v>39.99</v>
       </c>
       <c r="G9" t="n">
-        <v>44.52</v>
+        <v>45</v>
       </c>
       <c r="H9" t="n">
-        <v>49.71</v>
+        <v>47.34</v>
       </c>
     </row>
   </sheetData>
